--- a/BackEnd/src/main/resources/static/uploads/images/ThongTinNhanVien_FileMau.xlsx
+++ b/BackEnd/src/main/resources/static/uploads/images/ThongTinNhanVien_FileMau.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stneuedu-my.sharepoint.com/personal/11193833_st_neu_edu_vn/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\ScrumVMG\ScrumProject\BackEnd\src\main\resources\static\uploads\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B7E995A-3E24-4AE2-9AA8-9A633C652D33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D2D2B38-F83A-47D1-977F-224F66767FD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9513DEE7-06C1-487D-9A4D-86632B6C8A55}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="52">
   <si>
     <t>Name</t>
   </si>
@@ -71,9 +71,6 @@
     <t>Phu1111@gmail.com</t>
   </si>
   <si>
-    <t>manage</t>
-  </si>
-  <si>
     <t>Nam</t>
   </si>
   <si>
@@ -89,9 +86,6 @@
     <t>Canh1111@gmail.com</t>
   </si>
   <si>
-    <t>user</t>
-  </si>
-  <si>
     <t>Nguyễn Thị Hoa</t>
   </si>
   <si>
@@ -177,6 +171,27 @@
   </si>
   <si>
     <t>Khang1111@gmail.com</t>
+  </si>
+  <si>
+    <t>Trưởng phòng</t>
+  </si>
+  <si>
+    <t>Trưởng nhóm</t>
+  </si>
+  <si>
+    <t>Chuyên viên</t>
+  </si>
+  <si>
+    <t>Nhân viên</t>
+  </si>
+  <si>
+    <t>Cộng tác viên</t>
+  </si>
+  <si>
+    <t>Thực tập</t>
+  </si>
+  <si>
+    <t>Nhân sự</t>
   </si>
 </sst>
 </file>
@@ -533,7 +548,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -544,7 +559,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -553,6 +568,8 @@
     <col min="2" max="2" width="14.5546875" customWidth="1"/>
     <col min="3" max="3" width="26.33203125" customWidth="1"/>
     <col min="4" max="4" width="30.5546875" customWidth="1"/>
+    <col min="5" max="5" width="28.5546875" customWidth="1"/>
+    <col min="6" max="6" width="22.21875" customWidth="1"/>
     <col min="7" max="7" width="35.109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -593,10 +610,10 @@
         <v>10</v>
       </c>
       <c r="E2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" t="s">
         <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
       </c>
       <c r="G2" s="3">
         <v>44575</v>
@@ -604,22 +621,22 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G3" s="3">
         <v>44575</v>
@@ -627,22 +644,22 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
         <v>18</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" t="s">
         <v>20</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" t="s">
-        <v>22</v>
       </c>
       <c r="G4" s="3">
         <v>44576</v>
@@ -650,22 +667,22 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="E5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" t="s">
         <v>11</v>
-      </c>
-      <c r="F5" t="s">
-        <v>12</v>
       </c>
       <c r="G5" s="3">
         <v>44577</v>
@@ -673,22 +690,22 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
         <v>27</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G6" s="3">
         <v>44578</v>
@@ -696,22 +713,22 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
         <v>31</v>
       </c>
-      <c r="B7" t="s">
+      <c r="D7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G7" s="3">
         <v>44579</v>
@@ -719,22 +736,22 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" t="s">
         <v>35</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G8" s="3">
         <v>44580</v>
@@ -742,22 +759,22 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" t="s">
         <v>39</v>
       </c>
-      <c r="B9" t="s">
+      <c r="D9" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G9" s="3">
         <v>44581</v>
@@ -765,22 +782,22 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" t="s">
         <v>43</v>
       </c>
-      <c r="B10" t="s">
+      <c r="D10" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="E10" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G10" s="3">
         <v>44582</v>

--- a/BackEnd/src/main/resources/static/uploads/images/ThongTinNhanVien_FileMau.xlsx
+++ b/BackEnd/src/main/resources/static/uploads/images/ThongTinNhanVien_FileMau.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\ScrumVMG\ScrumProject\BackEnd\src\main\resources\static\uploads\images\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Downloads\pic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D2D2B38-F83A-47D1-977F-224F66767FD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E6C5D1DC-5B22-4B8F-9ED0-E2B079216048}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9513DEE7-06C1-487D-9A4D-86632B6C8A55}"/>
   </bookViews>
@@ -559,7 +559,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
